--- a/data/gpt_examples/Shots.xlsx
+++ b/data/gpt_examples/Shots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martin/Dropbox/SoccermaticsProCourse/assignment-3/bot/twelve-gpt-educational/data/gpt_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DDEDA7-EDB0-EF47-9FDB-4C601B01B1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237E7A9E-52A4-2342-BCE9-24D0308A17FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,17 +29,17 @@
   </si>
   <si>
     <t>Here is a description of Lionel Messi's shots during Copa America 2024.
-He attempted 14 shots during the tournament. 5 of his shots were from outside the box. 9 of his shots were from inside the box. 2 of his shots were made with his right foot. 12 of his shots were made with his left foot. 1 of his shots was a penalty. 1 of his shots was a free kick. 12 of his shots were from open play. He socred 1 goal. 3 of his shots were saved by the goalkeeper. 3 of his shots were blocked by a defender. 7 of his shots were off target or hit the posts. From his shots inside the box, he socred 1 goal, 2 were saved by the goalkeeper, 3 were blocked by a defender, 3 were off target or hit the posts. From his shots outside the box, 1 was saved by the goalkeeper, 4 were off target or hit the posts. From his free kick shtots, 1 was saved by the goalkeeper. From his penalty shots, 1 was off target or hit the posts. 1 of his goals was scored from inside the box. 1 of his goals was scored using his left foot. 1 of his goals was scored from open play. His accumulated expected goal (excluding penalties) was 2.03, since he scored 1 goal, he socred less goals than expected, so he underperformed. His shot with the highest expected goal (0.6) was Goal.</t>
+He attempted 13 shots during the tournament. 5 of his shots were from outside the box. 8 of his shots were from inside the box. On average, his shots were 16.19 meters away from the goal. 2 of his shots were made with his right foot. 11 of his shots were made with his left foot. 1 of his shots was a free kick. 12 of his shots were from open play. He socred 1 goal. 3 of his shots were saved by the goalkeeper. 3 of his shots were blocked by a defender. 6 of his shots were off target or hit the posts. From his shots inside the box, he socred 1 goal, 2 were saved by the goalkeeper, 3 were blocked by a defender, 2 were off target or hit the posts. From his shots outside the box, 1 was saved by the goalkeeper, 4 were off target or hit the posts. From his free kick shtots, 1 was saved by the goalkeeper. From his penalty shots. 1 of his goals was scored from inside the box. 1 of his goals was scored using his left foot. 1 of his goals was scored from open play. His accumulated expected goal (excluding penalties) was 2.03, since he scored 1 goal, he socred less goals than expected, so he underperformed. His xG per shot was (0.16), and his shot with the highest expected goal (0.60) was Goal.</t>
   </si>
   <si>
-    <t>Lionel Messi delivered a mixed performance during Copa America 2024, showcasing his trademark ability to generate chances but falling short of expected output. His strengths were evident in his dominance with his left foot, from which he took 12 of his 14 shots, and his consistent ability to create shooting opportunities inside the box, where he scored his lone goal. Inside the penalty area, he showed promise, converting one goal and forcing two saves, but also struggled with accuracy, as three shots were off target or blocked. His major weaknesses came in shots outside the box and in set pieces, where he failed to find the net, with most attempts being off target or saved. Overall, despite accumulating an expected goals (xG) value of 2.03, Messi underperformed, scoring just one goal, highlighting inefficiency in finishing during the tournament.</t>
-  </si>
-  <si>
-    <t>Federico Valverde had an impressive shooting performance during Copa America 2024, showcasing both volume and efficiency in front of goal. His primary strength was his right foot, accounting for 16 of his 17 shots, and his composure in converting both penalty opportunities. Valverde excelled inside the box, where he scored all three of his goals, demonstrating his ability to capitalize on high-quality chances. However, his performance outside the box was less effective, with the majority of his long-range shots being saved, blocked, or off target. Overall, Valverde overperformed significantly, scoring 3 goals from an expected goals (xG) value of just 0.59, highlighting his clinical finishing and efficiency in critical moments.</t>
+    <t>The player showed a steady but underwhelming performance during the tournament, attempting 13 shots with limited success. His primary strength was his left foot, which accounted for 11 of his attempts, and his preference for open-play situations where he took 12 of his shots. He performed well inside the box, scoring his only goal and creating high-quality chances, though his efforts from outside the box and free kicks lacked effectiveness. However, his major weakness lay in his finishing, with 6 shots off target or hitting the posts and an overall inability to capitalize on opportunities, scoring less than his expected goal tally of 2.03. Ultimately, despite a strong xG per shot (0.16) and a high-xG shot converted for a goal, his underperformance highlighted a need for greater efficiency in converting chances.</t>
   </si>
   <si>
     <t>Here is a description of Federico Valverde's shots during Copa America 2024. 
-He attempted 17 shots during the tournament. 11 of his shots were from outside the box. 6 of his shots were from inside the box. 16 of his shots were made with his right foot. 1 of his shots was made with his left foot. 2 of his shots were penalties. 2 of his shots were free kicks. 13 of his shots were from open play. He socred 3 goals. 3 of his shots were saved by the goalkeeper. 5 of his shots were blocked by a defender. 6 of his shots were off target or hit the posts. From his shots inside the box, he socred 3 goals, 2 were blocked by a defender, 1 was off target or hit the posts. From his shots outside the box, 3 were saved by the goalkeeper, 3 were blocked by a defender, 5 were off target or hit the posts. From his free kick shtots, 2 were blocked by a defender. From his penalty shots, he socred 2 goals. 3 of his goals were scored from inside the box. 3 of his goals were scored using his right foot. 2 of his goals were scored from penalties. 1 of his goals was scored from open play. His accumulated expected goal (excluding penalties) was 0.59, since he scored 3 goals, he scored more goals than expected, so he overperformed. His shot with the highest expected goal (0.17) was Goal.</t>
+ He attempted 15 shots during the tournament. 11 of his shots were from outside the box. 4 of his shots were from inside the box. On average, his shots were 27.47 meters away from the goal. 14 of his shots were made with his right foot. 1 of his shots was made with his left foot. 2 of his shots were free kicks. 13 of his shots were from open play. He socred 1 goal. 3 of his shots were saved by the goalkeeper. 5 of his shots were blocked by a defender. 6 of his shots were off target or hit the posts. From his shots inside the box, he socred 1 goal, 2 were blocked by a defender, 1 was off target or hit the posts. From his shots outside the box, 3 were saved by the goalkeeper, 3 were blocked by a defender, 5 were off target or hit the posts. From his free kick shtots, 2 were blocked by a defender. From his penalty shots. 1 of his goals was scored from inside the box. 1 of his goals was scored using his right foot. 1 of his goals was scored from open play. His accumulated expected goal (excluding penalties) was 0.59, since he scored 1 goal, he scored more goals than expected, so he overperformed. His xG per shot was (0.04), and his shot with the highest expected goal (0.17) was Goal.</t>
+  </si>
+  <si>
+    <t>Federico Valverde had a mixed performance during Copa America 2024, attempting 15 shots with a strong preference for long-range efforts. His primary strength was his right foot, responsible for 14 of his attempts, and his ability to create chances from open play, where he took 13 of his shots. He performed well inside the box, where he scored his only goal, demonstrating precision in close-range situations. However, he struggled with efficiency outside the box, where most of his shots were either saved, blocked, or off target, and his free kicks were ineffective, both being blocked. Despite accumulating a low expected goals (xG) value of 0.59, Valverde overperformed by scoring one goal, showcasing his ability to convert a difficult chance into a crucial finish.</t>
   </si>
 </sst>
 </file>
@@ -1368,10 +1368,10 @@
     </row>
     <row r="3" spans="1:20" ht="234.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
